--- a/notes/笔记.xlsx
+++ b/notes/笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180" activeTab="4"/>
+    <workbookView windowWidth="18288" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="路径规划" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
   <si>
     <t>标题</t>
   </si>
@@ -151,6 +151,9 @@
     <t>Efficient path planning for UAV formation via comprehensively improved particle swarm optimization</t>
   </si>
   <si>
+    <t>不涉及物资的运输</t>
+  </si>
+  <si>
     <t>Planning Paths for Package Delivery in Heterogeneous Multirobot Teams</t>
   </si>
   <si>
@@ -187,100 +190,109 @@
     <t>The min-cost parallel drone scheduling vehicle routing problem</t>
   </si>
   <si>
+    <t>Vehicle routing problems with drones equipped with multi-package payload compartments</t>
+  </si>
+  <si>
+    <t>Hybrid Multi-Objective Optimization Approach With Pareto Local Search for Collaborative Truck-Drone Routing Problems Considering Flexible Time Windows</t>
+  </si>
+  <si>
+    <t>An exact algorithm for the two-echelon vehicle routing problem with drones</t>
+  </si>
+  <si>
+    <t>Exact methods for the traveling salesman problem with multiple drones</t>
+  </si>
+  <si>
+    <t>A multi-visit flexible-docking vehicle routing problem with drones for simultaneous pickup and delivery services</t>
+  </si>
+  <si>
+    <t>A Lightweight Reinforcement-Learning-Based Real-Time Path-Planning Method for Unmanned Aerial Vehicles</t>
+  </si>
+  <si>
+    <t>UAV-Enabled Intelligent Transportation Systems for the Smart City: Applications and Challenges</t>
+  </si>
+  <si>
+    <t>Digital Supply Chain: Literature review and a proposed framework for future research</t>
+  </si>
+  <si>
+    <t>From high-touch to high-tech: COVID-19 drives robotics adoption</t>
+  </si>
+  <si>
+    <t>The strategic role of logistics in the industry 4.0 era</t>
+  </si>
+  <si>
+    <t>Applications of unmanned aerial vehicle (UAV) in road safety, traffic and highway infrastructure management: Recent advances and challenges</t>
+  </si>
+  <si>
+    <t>Urban Air Mobility: History, Ecosystem, Market Potential, and Challenges</t>
+  </si>
+  <si>
+    <t>Merging the norm activation model and the theory of planned behavior in the context of drone food delivery services: Does the level of product knowledge really matter?</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Transport and the Smart City: Definitions and Dimensions of a New Mobility Era</t>
+  </si>
+  <si>
+    <t>Optimizing a Drone Network to Deliver Automated External Defibrillators</t>
+  </si>
+  <si>
+    <t>Drones for disaster response and relief operations: A continuous approximation model</t>
+  </si>
+  <si>
+    <t>Online food delivery: A systematic synthesis of literature and a framework development</t>
+  </si>
+  <si>
+    <t>Digital technologies as enablers of supply chain sustainability in an emerging economy</t>
+  </si>
+  <si>
+    <t>Automated external defibrillators delivered by drones to patients with suspected out-of-hospital cardiac arrest</t>
+  </si>
+  <si>
+    <t>Urban Traffic Monitoring and Analysis Using Unmanned Aerial Vehicles (UAVs): A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>Artificial intelligence (AI)-enhanced medical drones in the healthcare supply chain (HSC) for sustainability development: A case study</t>
+  </si>
+  <si>
+    <t>Effect of unmanned aerial vehicle (drone) delivery on blood product delivery time and wastage in Rwanda: a retrospective, cross-sectional study and time series analysis</t>
+  </si>
+  <si>
+    <t>Drone logistics for uncertain demand of disaster-impacted populations</t>
+  </si>
+  <si>
+    <t>Reusing Delivery Drones for Urban Crowdsensing</t>
+  </si>
+  <si>
+    <t>Last-mile delivery concepts: a survey from an operational research perspective</t>
+  </si>
+  <si>
+    <t>Coordinated Logistics with a Truck and a Drone</t>
+  </si>
+  <si>
+    <t>Multi-UAV Cooperation and Control for Load Transportation and Deployment</t>
+  </si>
+  <si>
+    <t>Truck-drone hybrid delivery routing: Payload-energy dependency and No-Fly zones</t>
+  </si>
+  <si>
+    <t>Integrated scheduling of m-truck, m-drone, and m-depot constrained by time-window, drop-pickup, and m-visit using constraint programming</t>
+  </si>
+  <si>
+    <t>Persistent UAV delivery logistics: MILP formulation and efficient heuristic</t>
+  </si>
+  <si>
+    <t>A drone fleet model for last-mile distribution in disaster relief operations</t>
+  </si>
+  <si>
+    <t>A Literature Review of Drone-Based Package Delivery Logistics Systems and Their Implementation Feasibility</t>
+  </si>
+  <si>
+    <t>Logistics for a fleet of drones for medical item delivery: A case study for Louisville, KY</t>
+  </si>
+  <si>
     <t>Deep Q-learning for same-day delivery with vehicles and drones</t>
   </si>
   <si>
-    <t>Vehicle routing problems with drones equipped with multi-package payload compartments</t>
-  </si>
-  <si>
-    <t>Hybrid Multi-Objective Optimization Approach With Pareto Local Search for Collaborative Truck-Drone Routing Problems Considering Flexible Time Windows</t>
-  </si>
-  <si>
-    <t>An exact algorithm for the two-echelon vehicle routing problem with drones</t>
-  </si>
-  <si>
-    <t>Exact methods for the traveling salesman problem with multiple drones</t>
-  </si>
-  <si>
-    <t>UAV-Enabled Intelligent Transportation Systems for the Smart City: Applications and Challenges</t>
-  </si>
-  <si>
-    <t>Digital Supply Chain: Literature review and a proposed framework for future research</t>
-  </si>
-  <si>
-    <t>From high-touch to high-tech: COVID-19 drives robotics adoption</t>
-  </si>
-  <si>
-    <t>The strategic role of logistics in the industry 4.0 era</t>
-  </si>
-  <si>
-    <t>Applications of unmanned aerial vehicle (UAV) in road safety, traffic and highway infrastructure management: Recent advances and challenges</t>
-  </si>
-  <si>
-    <t>Urban Air Mobility: History, Ecosystem, Market Potential, and Challenges</t>
-  </si>
-  <si>
-    <t>Merging the norm activation model and the theory of planned behavior in the context of drone food delivery services: Does the level of product knowledge really matter?</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence, Transport and the Smart City: Definitions and Dimensions of a New Mobility Era</t>
-  </si>
-  <si>
-    <t>Optimizing a Drone Network to Deliver Automated External Defibrillators</t>
-  </si>
-  <si>
-    <t>Drones for disaster response and relief operations: A continuous approximation model</t>
-  </si>
-  <si>
-    <t>Online food delivery: A systematic synthesis of literature and a framework development</t>
-  </si>
-  <si>
-    <t>Digital technologies as enablers of supply chain sustainability in an emerging economy</t>
-  </si>
-  <si>
-    <t>Automated external defibrillators delivered by drones to patients with suspected out-of-hospital cardiac arrest</t>
-  </si>
-  <si>
-    <t>Urban Traffic Monitoring and Analysis Using Unmanned Aerial Vehicles (UAVs): A Systematic Literature Review</t>
-  </si>
-  <si>
-    <t>Artificial intelligence (AI)-enhanced medical drones in the healthcare supply chain (HSC) for sustainability development: A case study</t>
-  </si>
-  <si>
-    <t>Effect of unmanned aerial vehicle (drone) delivery on blood product delivery time and wastage in Rwanda: a retrospective, cross-sectional study and time series analysis</t>
-  </si>
-  <si>
-    <t>Drone logistics for uncertain demand of disaster-impacted populations</t>
-  </si>
-  <si>
-    <t>Reusing Delivery Drones for Urban Crowdsensing</t>
-  </si>
-  <si>
-    <t>Last-mile delivery concepts: a survey from an operational research perspective</t>
-  </si>
-  <si>
-    <t>Coordinated Logistics with a Truck and a Drone</t>
-  </si>
-  <si>
-    <t>Multi-UAV Cooperation and Control for Load Transportation and Deployment</t>
-  </si>
-  <si>
-    <t>Truck-drone hybrid delivery routing: Payload-energy dependency and No-Fly zones</t>
-  </si>
-  <si>
-    <t>Integrated scheduling of m-truck, m-drone, and m-depot constrained by time-window, drop-pickup, and m-visit using constraint programming</t>
-  </si>
-  <si>
-    <t>Persistent UAV delivery logistics: MILP formulation and efficient heuristic</t>
-  </si>
-  <si>
-    <t>A drone fleet model for last-mile distribution in disaster relief operations</t>
-  </si>
-  <si>
-    <t>A Literature Review of Drone-Based Package Delivery Logistics Systems and Their Implementation Feasibility</t>
-  </si>
-  <si>
-    <t>Logistics for a fleet of drones for medical item delivery: A case study for Louisville, KY</t>
+    <t>sustainability</t>
   </si>
   <si>
     <t>Energy use and life cycle greenhouse gas emissions of drones for commercial package delivery</t>
@@ -332,6 +344,81 @@
   </si>
   <si>
     <t>An Empirical Evaluation of Customers' Adoption of Drone Food Delivery Services: An Extended Technology Acceptance Model</t>
+  </si>
+  <si>
+    <t>Why Do People Resist Drone Food Delivery Services? An Innovation Resistance Theory Perspective</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Innovative marketing strategies for the successful construction of drone food delivery services: Merging TAM with TPB</t>
+  </si>
+  <si>
+    <t>Drone versus ambulance for blood products transportation: an economic evaluation study</t>
+  </si>
+  <si>
+    <t>Drone as a Service (DaaS) in promoting cleaner agricultural production and Circular Economy for ethical Sustainable Supply Chain development</t>
+  </si>
+  <si>
+    <t>Environmental and economic impacts of drone-assisted truck delivery under the carbon market price</t>
+  </si>
+  <si>
+    <t>Understanding the Eco-Friendly Role of Drone Food Delivery Services: Deepening the Theory of Planned Behavior</t>
+  </si>
+  <si>
+    <t>Consequences of a green image of drone food delivery services: The moderating role of gender and age</t>
+  </si>
+  <si>
+    <t>Application of internal environmental locus of control to the context of eco-friendly drone food delivery services</t>
+  </si>
+  <si>
+    <t>Application of the value-belief-norm model to environmentally friendly drone food delivery services The moderating role of product involvement</t>
+  </si>
+  <si>
+    <t>Mathematical Investigation on the Sustainability of UAV Logistics</t>
+  </si>
+  <si>
+    <t>Technology for Social Good Foundations: A Perspective From the Smallholder Farmer in Sustainable Supply Chains</t>
+  </si>
+  <si>
+    <t>Consumer acceptance of delivery drones in urban areas</t>
+  </si>
+  <si>
+    <t>Towards the Development of Smart and Sustainable Transportation System for Foodservice Industry: Modelling Factors Influencing Customer's Intention to Adopt Drone Food Delivery (DFD) Services | 被引次数：20</t>
+  </si>
+  <si>
+    <t>Consumer's usage of logistics technologies: Integration of habit into the unified theory of acceptance and use of technology</t>
+  </si>
+  <si>
+    <t>Sustainable last mile parcel delivery and return service using drones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An adapted TPB approach to consumers' acceptance of service-delivery drones</t>
+  </si>
+  <si>
+    <t>Consumers' perceptions of last mile drone delivery</t>
+  </si>
+  <si>
+    <t>Lifecycle modeling and assessment of unmanned aerial vehicles (Drones) CO2e emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An Empirical Evaluation of Customers' Adoption of Drone Food Delivery Services: An Extended Technology Acceptance Model</t>
+  </si>
+  <si>
+    <t>Applying NSGA-II to vehicle routing problem with drones considering makespan and carbon emission</t>
+  </si>
+  <si>
+    <t>Choice model based analysis of consumer preference for drone delivery service</t>
+  </si>
+  <si>
+    <t>Drone flight data reveal energy and greenhouse gas emissions savings for very small package delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards a unified model of consumers' intentions to use drone food delivery services </t>
   </si>
   <si>
     <t>Name</t>
@@ -476,6 +563,48 @@
   </si>
   <si>
     <t>Bouman wt al 2018</t>
+  </si>
+  <si>
+    <t>Cavani et al 2021</t>
+  </si>
+  <si>
+    <t>24 customers</t>
+  </si>
+  <si>
+    <t>Zhou et al 2023</t>
+  </si>
+  <si>
+    <t>25-35 customers</t>
+  </si>
+  <si>
+    <t>Luo et al 2022</t>
+  </si>
+  <si>
+    <t>Total cost; Customer satisfaction (based on adherence to flexible time windows)</t>
+  </si>
+  <si>
+    <t>80 nodes</t>
+  </si>
+  <si>
+    <t>Masmoudi et al 2022</t>
+  </si>
+  <si>
+    <t>Max revenue (the sum of package delivery revenues minus operational costs)</t>
+  </si>
+  <si>
+    <t>Nguyen et al 2022</t>
+  </si>
+  <si>
+    <t>400 customers</t>
+  </si>
+  <si>
+    <t>Jiang et al 2024</t>
+  </si>
+  <si>
+    <t>100 customers</t>
+  </si>
+  <si>
+    <t>这个和其他的不一样，没法回答。单纯路径规划不涉及物流，应该被摘出去</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1238,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1442,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1493,7 +1625,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1507,7 +1639,7 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1521,7 +1653,7 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1621,13 +1753,15 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" ht="28.8" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1635,7 +1769,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1643,7 +1777,7 @@
     </row>
     <row r="17" ht="28.8" spans="2:5">
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1651,7 +1785,7 @@
     </row>
     <row r="18" ht="28.8" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1659,7 +1793,7 @@
     </row>
     <row r="19" ht="28.8" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1667,7 +1801,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1686,44 +1820,44 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>2022</v>
+      </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1745,6 +1879,21 @@
     <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1767,108 +1916,108 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1881,72 +2030,77 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1958,116 +2112,342 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q21"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="93.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="52.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16">
+        <v>2022</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
         <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2459,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2098,25 +2478,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:7">
@@ -2124,42 +2504,42 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:7">
@@ -2167,22 +2547,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:7">
@@ -2190,22 +2570,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:7">
@@ -2213,22 +2593,22 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2236,22 +2616,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:7">
@@ -2259,45 +2639,45 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="1:7">
@@ -2305,22 +2685,22 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:7">
@@ -2328,22 +2708,22 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:7">
@@ -2351,23 +2731,327 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>107</v>
-      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" ht="100.8" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
